--- a/Library/Planets.xlsx
+++ b/Library/Planets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\source\repos\Oblig2\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1720A55-9D0F-4143-97EF-6BADA423EFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EBAF1C-88A7-4744-98D0-3D5FE7AE1A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -302,13 +302,13 @@
     <t>LightYellow</t>
   </si>
   <si>
-    <t>SandyBrown</t>
-  </si>
-  <si>
-    <t>SeaGreen</t>
-  </si>
-  <si>
     <t>Radius KM</t>
+  </si>
+  <si>
+    <t>Teal</t>
+  </si>
+  <si>
+    <t>Thistle</t>
   </si>
 </sst>
 </file>
@@ -669,7 +669,7 @@
   <dimension ref="A1:L254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -689,7 +689,7 @@
         <v>86</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>79</v>
@@ -805,9 +805,6 @@
         <v>149600</v>
       </c>
       <c r="G5" s="7">
-        <v>365</v>
-      </c>
-      <c r="H5" s="7">
         <v>365.26</v>
       </c>
       <c r="I5" s="3"/>
@@ -991,7 +988,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D12" s="4">
         <v>1700</v>
@@ -1019,7 +1016,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D13" s="4">
         <v>750</v>
@@ -1047,7 +1044,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D14" s="4">
         <v>750</v>
@@ -1075,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D15" s="4">
         <v>750</v>
@@ -1103,7 +1100,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D16" s="4">
         <v>750</v>
@@ -1131,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D17" s="4">
         <v>750</v>
@@ -1159,7 +1156,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D18" s="4">
         <v>750</v>
@@ -1187,7 +1184,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D19" s="4">
         <v>750</v>
@@ -1215,7 +1212,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D20" s="4">
         <v>750</v>
@@ -1243,7 +1240,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D21" s="4">
         <v>750</v>
@@ -1271,7 +1268,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D22" s="4">
         <v>750</v>
@@ -1299,7 +1296,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D23" s="4">
         <v>750</v>
@@ -1327,7 +1324,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D24" s="4">
         <v>750</v>
@@ -1355,7 +1352,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D25" s="4">
         <v>750</v>
@@ -1383,7 +1380,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D26" s="4">
         <v>750</v>
@@ -1411,7 +1408,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D27" s="4">
         <v>750</v>
@@ -1439,7 +1436,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D28" s="4">
         <v>750</v>
@@ -1467,7 +1464,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="4">
         <v>750</v>
@@ -1495,7 +1492,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D30" s="4">
         <v>750</v>
@@ -1523,7 +1520,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D31" s="4">
         <v>750</v>
@@ -1551,7 +1548,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D32" s="4">
         <v>750</v>
@@ -1579,7 +1576,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D33" s="4">
         <v>750</v>
@@ -1607,7 +1604,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D34" s="4">
         <v>750</v>
@@ -1635,7 +1632,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D35" s="4">
         <v>750</v>
@@ -1663,7 +1660,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D36" s="4">
         <v>750</v>
@@ -1691,7 +1688,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D37" s="4">
         <v>750</v>
@@ -1719,7 +1716,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D38" s="4">
         <v>750</v>
@@ -1747,7 +1744,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D39" s="4">
         <v>750</v>
@@ -1775,7 +1772,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D40" s="4">
         <v>750</v>
@@ -1803,7 +1800,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D41" s="4">
         <v>750</v>
@@ -1831,7 +1828,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D42" s="4">
         <v>750</v>
@@ -1859,7 +1856,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D43" s="4">
         <v>750</v>
@@ -1887,7 +1884,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D44" s="4">
         <v>750</v>
@@ -1915,7 +1912,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D45" s="4">
         <v>750</v>
@@ -1943,7 +1940,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D46" s="4">
         <v>750</v>
@@ -1971,7 +1968,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D47" s="4">
         <v>750</v>
@@ -1999,7 +1996,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D48" s="4">
         <v>750</v>
@@ -2027,7 +2024,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D49" s="4">
         <v>750</v>
@@ -2055,7 +2052,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D50" s="4">
         <v>750</v>
@@ -2083,7 +2080,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D51" s="4">
         <v>750</v>
@@ -2111,7 +2108,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D52" s="4">
         <v>750</v>
@@ -2139,7 +2136,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D53" s="4">
         <v>750</v>
@@ -2167,7 +2164,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D54" s="4">
         <v>750</v>
@@ -2195,7 +2192,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D55" s="4">
         <v>750</v>
@@ -2223,7 +2220,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D56" s="4">
         <v>750</v>
@@ -2251,7 +2248,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D57" s="4">
         <v>750</v>
@@ -2279,7 +2276,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D58" s="4">
         <v>750</v>
@@ -2307,7 +2304,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D59" s="4">
         <v>750</v>
@@ -2335,7 +2332,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D60" s="4">
         <v>750</v>
@@ -2363,7 +2360,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D61" s="4">
         <v>750</v>
@@ -2391,7 +2388,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D62" s="4">
         <v>750</v>
@@ -2419,7 +2416,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D63" s="4">
         <v>750</v>
@@ -2447,7 +2444,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D64" s="4">
         <v>750</v>
@@ -2475,7 +2472,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D65" s="4">
         <v>750</v>
@@ -2503,7 +2500,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D66" s="4">
         <v>750</v>
@@ -2531,7 +2528,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D67" s="4">
         <v>750</v>
@@ -2559,7 +2556,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D68" s="4">
         <v>750</v>
@@ -2587,7 +2584,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D69" s="4">
         <v>750</v>
@@ -2615,7 +2612,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D70" s="4">
         <v>750</v>
@@ -2643,7 +2640,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D71" s="4">
         <v>750</v>
@@ -2671,7 +2668,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D72" s="4">
         <v>750</v>
@@ -2699,7 +2696,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D73" s="4">
         <v>750</v>
@@ -2727,7 +2724,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D74" s="4">
         <v>750</v>
@@ -2755,7 +2752,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D75" s="4">
         <v>750</v>
@@ -2783,7 +2780,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D76" s="4">
         <v>750</v>
@@ -2811,7 +2808,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D77" s="4">
         <v>750</v>
@@ -2839,7 +2836,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D78" s="4">
         <v>750</v>
@@ -2867,7 +2864,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D79" s="4">
         <v>750</v>
